--- a/divelog.xlsx
+++ b/divelog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Europa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cabritte Horn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -618,6 +630,72 @@
         <v>8.4</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>41484</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="F9">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>41484</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="F10">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>41484</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="F11">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="3">
+        <f>SUM(E2:E11)</f>
+        <v>0.39652777777777776</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
